--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -952,7 +952,8 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t xml:space="preserve">SET UP ON REG #1
+4:00 am meet for Carlie/Trevor at Grafton Park n Ride	</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -964,7 +965,9 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #4</t>
+          <t xml:space="preserve">SET UP ON REG #4
+FULL STORE RESET-REMAPPED        
+3:45 am meet for Carlie/Trevor at Grafton Park n Ride	</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -997,11 +1000,7 @@
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>4:00 am meet for Carlie/Trevor at Grafton Park n Ride</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
@@ -1021,11 +1020,7 @@
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>FULL STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
@@ -1064,9 +1059,21 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1085,13 +1092,21 @@
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>3:45 am meet for Carlie/Trevor at Grafton Park n Ride</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1137,17 +1152,17 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>(w/ Trevor)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1163,9 +1178,22 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>(w/ Trevor),
+Rx</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1205,19 +1233,15 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>(w/ Trevor)</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1233,17 +1257,18 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1284,15 +1309,20 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1308,18 +1338,18 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>(w/ Trevor),
-Rx</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1356,18 +1386,19 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Optima,
+Supv Rx</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1385,20 +1416,15 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1441,21 +1467,15 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1471,20 +1491,15 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1523,12 +1538,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1551,12 +1566,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1603,12 +1618,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1632,12 +1647,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1679,15 +1694,19 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1707,12 +1726,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1742,17 +1761,18 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>@ Store,
+1st Rx</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1774,12 +1794,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1809,18 +1829,17 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store,
-1st Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1842,15 +1861,19 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1881,12 +1904,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1913,15 +1936,20 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1952,12 +1980,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1984,17 +2012,17 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2032,12 +2060,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2064,18 +2092,17 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2112,12 +2139,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2143,21 +2170,9 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -2178,21 +2193,9 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2210,21 +2213,9 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2254,7 +2245,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2277,7 +2272,11 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2285,7 +2284,11 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2323,7 +2326,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2339,7 +2342,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2374,7 +2377,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2390,7 +2393,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6901 W EDGERTON AVENUE</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2425,7 +2428,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2441,7 +2444,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
+          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2476,7 +2479,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2490,11 +2493,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>6901 W EDGERTON AVENUE</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2527,7 +2526,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2540,13 +2539,21 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2588,11 +2595,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2603,8 +2606,16 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2634,29 +2645,29 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2687,19 +2698,15 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2717,16 +2724,8 @@
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2762,12 +2761,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2785,7 +2784,11 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2819,16 +2822,8 @@
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -2844,7 +2839,11 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2885,7 +2884,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2910,7 +2909,11 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -2928,7 +2931,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>CONDON OIL #185, RIPON</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2959,10 +2962,14 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>After Metcalfes</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -2979,7 +2986,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>641 E OSHKOSH ST</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2987,7 +2994,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>NOTE FROM KIM FROM LAST INV RX WILL BE MOVING ACROSS THE HALL.  SUITE NUMBER MAY BE DIFFERENT.</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3008,16 +3015,8 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>After Metcalfes</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -3034,7 +3033,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>CONDON OIL #185, RIPON</t>
+          <t>https://goo.gl/maps/XYUwgvQ4nxz</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3042,7 +3041,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3073,7 +3072,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>641 E OSHKOSH ST</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3081,7 +3080,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA VISION #1162, SUMMIT</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3112,7 +3111,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XYUwgvQ4nxz</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3120,7 +3119,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>AURORA VISION #1162, SUMMIT</t>
+          <t>36500 AURORA DR, SUITE 130</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3147,7 +3146,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
+          <t>4:45 AM MEET AT Slinger Piggly Wiggly</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3155,7 +3154,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>CONDON OIL #280, RIPON</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3163,7 +3162,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>36500 AURORA DR, SUITE 130</t>
+          <t>https://goo.gl/maps/uVd8GmA8otk</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3198,7 +3197,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1105 W FOND DU LAC ST</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3206,7 +3205,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uVd8GmA8otk</t>
+          <t>USE MEDICAL OFFICE ENTRANCE.  FOLLOW EMERG ROOM ARROW IN PARKING LOT</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3241,17 +3240,13 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>CONDON OIL #280, RIPON</t>
+          <t>https://goo.gl/maps/n7ESHm7AS732</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>USE MEDICAL OFFICE ENTRANCE.  FOLLOW EMERG ROOM ARROW IN PARKING LOT</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3278,16 +3273,24 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>1105 W FOND DU LAC ST</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3325,29 +3328,33 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n7ESHm7AS732</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Gold Camry, Equip</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3386,18 +3393,30 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3433,32 +3452,12 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Gold Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3485,28 +3484,12 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3539,20 +3522,32 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3578,9 +3573,21 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>(w/ Trevor to Slinger)</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3589,7 +3596,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3619,17 +3626,18 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3638,11 +3646,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3674,17 +3678,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>(w/ Trevor to Slinger)</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3721,18 +3725,17 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3761,17 +3764,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>David</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3800,12 +3803,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3843,12 +3846,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3886,12 +3889,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3929,12 +3932,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -3972,12 +3975,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4015,12 +4018,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4052,21 +4055,9 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4103,21 +4094,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -4158,8 +4158,16 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -4168,7 +4168,11 @@
           <t>Brianna</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Check In</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,9 +2870,21 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Check In After Store</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2961,11 +2973,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -3012,16 +3020,8 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>After Metcalfes</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -3067,7 +3067,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3106,8 +3110,16 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>After Metcalfes</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -4170,7 +4182,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Check In</t>
+          <t>Check In After Store</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4535,6 +4547,45 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Check In After Store</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +602,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Optima appointment</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -952,8 +956,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">SET UP ON REG #1
-4:00 am meet for Carlie/Trevor at Grafton Park n Ride	</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -965,9 +968,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t xml:space="preserve">SET UP ON REG #4
-FULL STORE RESET-REMAPPED        
-3:45 am meet for Carlie/Trevor at Grafton Park n Ride	</t>
+          <t>SET UP ON REG #4</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1000,7 +1001,11 @@
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4:00 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
@@ -1020,7 +1025,11 @@
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>FULL STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
@@ -1059,21 +1068,9 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1092,21 +1089,13 @@
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>3:45 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1152,17 +1141,17 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>(w/ Trevor)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1178,22 +1167,9 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>(w/ Trevor),
-Rx</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1233,15 +1209,19 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1257,18 +1237,17 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1309,20 +1288,15 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1338,18 +1312,18 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>(w/ Trevor),
+Rx</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1386,19 +1360,18 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Driver,
-Optima,
-Supv Rx</t>
+Red Van</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1416,15 +1389,20 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1467,15 +1445,21 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1491,15 +1475,20 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1538,12 +1527,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1566,12 +1555,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1618,12 +1607,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1647,12 +1636,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1694,19 +1683,15 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1726,12 +1711,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1761,18 +1746,17 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-1st Rx</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1794,12 +1778,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1829,17 +1813,18 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1861,19 +1846,15 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1904,12 +1885,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1936,20 +1917,15 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1980,12 +1956,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2012,17 +1988,17 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2060,12 +2036,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2092,17 +2068,18 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2139,12 +2116,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2170,9 +2147,21 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -2193,9 +2182,21 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2213,9 +2214,21 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2245,11 +2258,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2272,11 +2281,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2284,11 +2289,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2326,7 +2327,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2342,7 +2343,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2377,7 +2378,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2393,7 +2394,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6901 W EDGERTON AVENUE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2428,7 +2429,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2444,7 +2445,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
+          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2479,7 +2480,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2493,7 +2494,11 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>6901 W EDGERTON AVENUE</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2526,7 +2531,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2539,21 +2544,13 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2595,7 +2592,11 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2606,16 +2607,8 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2645,29 +2638,29 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2698,15 +2691,19 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2724,8 +2721,16 @@
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2761,12 +2766,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2784,11 +2789,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2822,8 +2823,16 @@
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -2839,11 +2848,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2865,9 +2870,21 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Check In After Store</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2884,7 +2901,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2909,11 +2926,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -2931,7 +2944,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>CONDON OIL #185, RIPON</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2960,16 +2973,8 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>After Metcalfes</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -2986,7 +2991,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>641 E OSHKOSH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2994,7 +2999,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>NOTE FROM KIM FROM LAST INV RX WILL BE MOVING ACROSS THE HALL.  SUITE NUMBER MAY BE DIFFERENT.</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3033,7 +3038,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XYUwgvQ4nxz</t>
+          <t>CONDON OIL #185, RIPON</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3041,7 +3046,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3062,7 +3067,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3072,7 +3081,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>641 E OSHKOSH ST</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3080,7 +3089,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>AURORA VISION #1162, SUMMIT</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3101,8 +3110,16 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>After Metcalfes</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -3111,7 +3128,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/XYUwgvQ4nxz</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3119,7 +3136,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>36500 AURORA DR, SUITE 130</t>
+          <t>AURORA VISION #1162, SUMMIT</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3146,7 +3163,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>4:45 AM MEET AT Slinger Piggly Wiggly</t>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3154,7 +3171,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>CONDON OIL #280, RIPON</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3162,7 +3179,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uVd8GmA8otk</t>
+          <t>36500 AURORA DR, SUITE 130</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3197,7 +3214,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>1105 W FOND DU LAC ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3205,7 +3222,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>USE MEDICAL OFFICE ENTRANCE.  FOLLOW EMERG ROOM ARROW IN PARKING LOT</t>
+          <t>https://goo.gl/maps/uVd8GmA8otk</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3240,13 +3257,17 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n7ESHm7AS732</t>
+          <t>CONDON OIL #280, RIPON</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>USE MEDICAL OFFICE ENTRANCE.  FOLLOW EMERG ROOM ARROW IN PARKING LOT</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3273,24 +3294,16 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>1105 W FOND DU LAC ST</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3328,33 +3341,29 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Gold Camry, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/n7ESHm7AS732</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3393,30 +3402,18 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3452,12 +3449,32 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Gold Camry, Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3484,12 +3501,28 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3522,32 +3555,20 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3573,21 +3594,9 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>(w/ Trevor to Slinger)</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3596,7 +3605,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3626,18 +3635,17 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3646,7 +3654,11 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3678,17 +3690,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>(w/ Trevor to Slinger)</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3725,17 +3737,18 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3764,17 +3777,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3803,12 +3816,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3846,12 +3859,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>David</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3889,12 +3902,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3932,12 +3945,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -3975,12 +3988,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4018,12 +4031,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4055,9 +4068,21 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4094,9 +4119,21 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -4133,9 +4170,21 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Check In After Store</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4498,6 +4547,45 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Check In After Store</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,21 +2870,9 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Check In After Store</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2973,7 +2961,11 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -3020,8 +3012,16 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>After Metcalfes</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -3067,11 +3067,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3110,16 +3106,8 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>After Metcalfes</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -4170,21 +4158,9 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Check In After Store</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4547,45 +4523,6 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Check In After Store</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -1400,7 +1400,7 @@
       <c r="S20" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Optima; Sucks</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2253,9 +2253,21 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Check In After Pig</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2378,7 +2390,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2386,7 +2398,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>*FIRST INVENTORY WITH BADGER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2429,7 +2441,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2437,7 +2449,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #142, SUSSEX</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2480,7 +2492,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2488,7 +2500,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #142, SUSSEX</t>
+          <t>N63 W23735 MAIN ST</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2531,7 +2543,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2539,7 +2551,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>N63 W23735 MAIN ST</t>
+          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2594,7 +2606,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2602,7 +2614,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
+          <t>*FIRST INVENTORY WITH BADGER</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -4158,9 +4170,21 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Leshaun</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2345,11 +2345,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2396,11 +2392,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2447,11 +2439,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #142, SUSSEX</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2500,7 +2488,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>N63 W23735 MAIN ST</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2551,7 +2539,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2614,7 +2602,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>*FIRST INVENTORY WITH BADGER</t>
+          <t>PIGGLY WIGGLY #142, SUSSEX</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2655,7 +2643,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>N63 W23735 MAIN ST</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2717,21 +2709,13 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2788,14 +2772,10 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>*FIRST INVENTORY WITH BADGER</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2847,16 +2827,8 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2888,15 +2860,19 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
@@ -2931,12 +2907,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2965,11 +2941,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2982,12 +2954,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3016,11 +2988,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3037,12 +3005,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3071,19 +3039,23 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3110,19 +3082,23 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #209, KENOSHA</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3151,7 +3127,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>7600 PERSHING BLVD</t>
+          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3160,10 +3136,14 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3194,7 +3174,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JzRgLG7fbbR2</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3204,11 +3184,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3237,7 +3213,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4:30 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3247,11 +3223,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3278,7 +3250,11 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #209, KENOSHA</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3288,7 +3264,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #038, MENASHA</t>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3312,22 +3288,13 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>7600 PERSHING BLVD</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3336,7 +3303,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1151 MIDWAY RD</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3372,23 +3339,13 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry
-(w/ Trevor)</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/JzRgLG7fbbR2</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3397,7 +3354,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ufFM5TycoD42</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3425,14 +3382,10 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>4:30 am meet for Carlie/Trevor at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3444,7 +3397,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>LIQUOR &amp; SMALL RESETS-REMAPPED</t>
+          <t>PIGGLY WIGGLY #038, MENASHA</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3484,16 +3437,8 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3503,7 +3448,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>1151 MIDWAY RD</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3537,17 +3482,18 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3558,7 +3504,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
+          <t>https://goo.gl/maps/ufFM5TycoD42</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3580,22 +3526,32 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry
+(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>LIQUOR &amp; SMALL RESETS-REMAPPED</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3619,12 +3575,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3633,21 +3589,13 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3670,39 +3618,27 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>(w/ Trevor to Slinger)</t>
-        </is>
-      </c>
+          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3721,36 +3657,27 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3767,8 +3694,16 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -3777,17 +3712,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3806,8 +3741,16 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3816,17 +3759,17 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>(w/ Trevor to Slinger)</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3845,13 +3788,21 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3859,17 +3810,18 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -3888,10 +3840,14 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3902,17 +3858,17 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -3932,11 +3888,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #208, DELAVAN</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3945,12 +3897,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -3975,11 +3927,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1414 E GENEVA ST</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -3988,12 +3936,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>David</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4020,7 +3968,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hixkUheCekD2</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4031,12 +3979,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4061,7 +4009,11 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -4070,12 +4022,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4099,21 +4051,13 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>PIGGLY WIGGLY #208, DELAVAN</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4121,12 +4065,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4150,21 +4094,13 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>1414 E GENEVA ST</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4172,17 +4108,17 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Leshaun</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4201,29 +4137,33 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/hixkUheCekD2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -4240,29 +4180,29 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4281,17 +4221,17 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -4299,9 +4239,21 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Leshaun</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4320,12 +4272,12 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4359,12 +4311,12 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4398,12 +4350,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4437,12 +4389,12 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4476,12 +4428,12 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4515,12 +4467,12 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4547,6 +4499,162 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2253,21 +2253,9 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Check In After Pig</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2345,7 +2333,11 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2386,13 +2378,17 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>*FIRST INVENTORY WITH BADGER</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2433,13 +2429,17 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2480,7 +2480,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PIGGLY WIGGLY #142, SUSSEX</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2531,7 +2531,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2539,7 +2539,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>N63 W23735 MAIN ST</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2602,7 +2602,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #142, SUSSEX</t>
+          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2643,11 +2643,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>N63 W23735 MAIN ST</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2709,13 +2705,21 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2772,10 +2776,14 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>*FIRST INVENTORY WITH BADGER</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2827,8 +2835,16 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2860,19 +2876,15 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
@@ -2907,12 +2919,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2941,7 +2953,11 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2954,12 +2970,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2988,7 +3004,11 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3005,12 +3025,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3039,23 +3059,19 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3082,23 +3098,19 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #209, KENOSHA</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3127,7 +3139,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>7600 PERSHING BLVD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3136,14 +3148,10 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3174,7 +3182,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>https://goo.gl/maps/JzRgLG7fbbR2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3184,7 +3192,11 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3213,7 +3225,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>4:30 am meet for Carlie/Trevor at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3223,7 +3235,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3250,11 +3266,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #209, KENOSHA</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3264,7 +3276,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
+          <t>PIGGLY WIGGLY #038, MENASHA</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3288,13 +3300,22 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7600 PERSHING BLVD</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3303,7 +3324,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>1151 MIDWAY RD</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3339,13 +3360,23 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JzRgLG7fbbR2</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry
+(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3354,7 +3385,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/ufFM5TycoD42</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3382,10 +3413,14 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4:30 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3397,7 +3432,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #038, MENASHA</t>
+          <t>LIQUOR &amp; SMALL RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3437,8 +3472,16 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3448,7 +3491,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1151 MIDWAY RD</t>
+          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3482,18 +3525,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3504,7 +3546,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ufFM5TycoD42</t>
+          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3526,32 +3568,22 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry
-(w/ Trevor)</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>LIQUOR &amp; SMALL RESETS-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3575,12 +3607,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3589,13 +3621,21 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3618,27 +3658,39 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>(w/ Trevor to Slinger)</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3657,27 +3709,36 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3694,16 +3755,8 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -3712,17 +3765,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3741,16 +3794,8 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3759,17 +3804,17 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>(w/ Trevor to Slinger)</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3788,21 +3833,13 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3810,18 +3847,17 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>David</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -3840,14 +3876,10 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3858,17 +3890,17 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -3888,7 +3920,11 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #208, DELAVAN</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3897,12 +3933,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -3927,7 +3963,11 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1414 E GENEVA ST</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -3936,12 +3976,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -3968,7 +4008,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>https://goo.gl/maps/hixkUheCekD2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3979,12 +4019,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4009,11 +4049,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -4022,12 +4058,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4051,13 +4087,21 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #208, DELAVAN</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4065,12 +4109,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4094,33 +4138,29 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1414 E GENEVA ST</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4137,33 +4177,29 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hixkUheCekD2</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -4180,29 +4216,29 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4221,17 +4257,17 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -4239,21 +4275,9 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Leshaun</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4272,12 +4296,12 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4311,12 +4335,12 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4350,12 +4374,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4389,12 +4413,12 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4428,12 +4452,12 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4467,12 +4491,12 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4499,162 +4523,6 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -540,24 +540,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 6-8</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 6-8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,24 +611,56 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -618,12 +690,28 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -3373,7 +3461,7 @@
       <c r="G55" t="inlineStr">
         <is>
           <t>Driver,
-White Camry
+White Camry,
 (w/ Trevor)</t>
         </is>
       </c>
@@ -3852,7 +3940,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3895,7 +3983,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3938,7 +4026,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -3981,7 +4069,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4024,7 +4112,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4063,7 +4151,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4107,21 +4195,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -2145,7 +2145,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2225,13 +2225,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2277,7 +2276,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2293,12 +2292,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2337,13 +2337,37 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2413,19 +2437,11 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2466,7 +2482,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2474,7 +2490,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>*FIRST INVENTORY WITH BADGER</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2727,11 +2743,19 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>*PERISHABLE INVENTORY</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>*FIRST INVENTORY WITH BADGER</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2777,37 +2801,13 @@
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2854,27 +2854,35 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2913,24 +2921,24 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2958,18 +2966,26 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3007,12 +3023,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3049,21 +3065,17 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3102,23 +3114,19 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>After Metcalfes</t>
-        </is>
-      </c>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3155,11 +3163,27 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>After Metcalfes</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3237,11 +3261,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3282,7 +3302,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3325,7 +3345,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3364,7 +3384,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #038, MENASHA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3412,7 +3432,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1151 MIDWAY RD</t>
+          <t>PIGGLY WIGGLY #038, MENASHA</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3473,7 +3493,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ufFM5TycoD42</t>
+          <t>1151 MIDWAY RD</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3520,7 +3540,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>LIQUOR &amp; SMALL RESETS-REMAPPED</t>
+          <t>https://goo.gl/maps/ufFM5TycoD42</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3579,7 +3599,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>LIQUOR &amp; SMALL RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3634,7 +3654,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
+          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3671,7 +3691,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3709,21 +3733,9 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3766,17 +3778,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>(w/ Trevor to Slinger)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3813,18 +3825,17 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>(w/ Trevor to Slinger)</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3853,17 +3864,18 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3892,17 +3904,17 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3935,12 +3947,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3978,12 +3990,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4021,12 +4033,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4064,12 +4076,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4107,12 +4119,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4146,12 +4158,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4195,9 +4207,21 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -1559,7 +1559,11 @@
           <t>Via</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>After Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -3221,9 +3225,21 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -4258,8 +4274,16 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Via</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -1559,11 +1559,7 @@
           <t>Via</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>After Store</t>
-        </is>
-      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -3225,21 +3221,9 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>After</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -4274,16 +4258,8 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Via</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -1470,7 +1470,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1556,10 +1556,14 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1632,12 +1636,13 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Rx</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1700,7 +1705,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1712,13 +1717,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1776,10 +1780,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1788,7 +1796,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1839,12 +1847,13 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>@ Store,
+1st Rx</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1855,7 +1864,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1906,13 +1915,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store,
-1st Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1923,7 +1931,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1978,7 +1986,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1994,7 +2002,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2049,7 +2057,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2065,7 +2073,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2129,7 +2137,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2145,7 +2153,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2209,7 +2217,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2225,12 +2233,13 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2276,7 +2285,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2292,13 +2301,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2337,37 +2345,13 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2437,11 +2421,19 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2482,7 +2474,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2490,7 +2482,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2533,7 +2525,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2541,7 +2533,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #142, SUSSEX</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2584,7 +2576,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2592,7 +2584,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #142, SUSSEX</t>
+          <t>N63 W23735 MAIN ST</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2635,7 +2627,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2643,7 +2635,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>N63 W23735 MAIN ST</t>
+          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2698,7 +2690,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2706,7 +2698,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
+          <t>*FIRST INVENTORY WITH BADGER</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2743,19 +2735,11 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>*PERISHABLE INVENTORY</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>*FIRST INVENTORY WITH BADGER</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2801,13 +2785,37 @@
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2854,35 +2862,27 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2921,24 +2921,24 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2966,26 +2966,18 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3023,12 +3015,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3065,17 +3057,21 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3114,19 +3110,23 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>After Metcalfes</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3163,27 +3163,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>After Metcalfes</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3261,7 +3245,11 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3302,7 +3290,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3345,7 +3333,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3384,7 +3372,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #038, MENASHA</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3432,7 +3420,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #038, MENASHA</t>
+          <t>1151 MIDWAY RD</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3493,7 +3481,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1151 MIDWAY RD</t>
+          <t>https://goo.gl/maps/ufFM5TycoD42</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3540,7 +3528,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ufFM5TycoD42</t>
+          <t>LIQUOR &amp; SMALL RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3599,7 +3587,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>LIQUOR &amp; SMALL RESETS-REMAPPED</t>
+          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3654,7 +3642,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>4:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3691,11 +3679,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>4:45 am meet at Slinger Piggly Wiggly (Lashaun/Carlie/Trevor)</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3733,9 +3717,21 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3778,17 +3774,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>(w/ Trevor to Slinger)</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3825,17 +3821,18 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>(w/ Trevor to Slinger)</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3864,18 +3861,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3904,17 +3900,17 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3947,12 +3943,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3990,12 +3986,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4033,12 +4029,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4076,12 +4072,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4119,12 +4115,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4158,12 +4154,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4207,21 +4203,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>

--- a/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
+++ b/07-07-24 to 07-13-24 Milwaukee Schedule Copy.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Bags 6-8</t>
+          <t>Bags 5,6</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Bags 6-8</t>
+          <t>Bags 5-7</t>
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
@@ -635,8 +635,16 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -646,7 +654,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Bag 8, SB 11</t>
+          <t>Bag 5, SB 11</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -697,7 +705,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Bag 5</t>
+          <t>Bag 8</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -709,7 +717,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Bag 5, SB 11</t>
+          <t>Bag 8, SB 11</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1947,7 +1955,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -2018,10 +2026,14 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -2089,12 +2101,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2169,13 +2182,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2250,7 +2262,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3497,7 +3509,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3549,16 +3561,8 @@
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3652,7 +3656,11 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3689,7 +3697,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3738,11 +3746,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3784,7 +3788,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>(w/ Trevor to Slinger)</t>
+          <t>(w/ Trevor to Slinger), work w/ Taya</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -4164,7 +4168,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, 1st Pig, work w/ Carlie</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
